--- a/Tabel subnet.xlsx
+++ b/Tabel subnet.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farre\Downloads\jarkom modul4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60560E76-9E3B-4945-9448-94DCF7E83F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -238,9 +247,6 @@
     <t>192.214.3.0</t>
   </si>
   <si>
-    <t>192.214.3.1 - 192.214.3.245</t>
-  </si>
-  <si>
     <t>192.214.3.255</t>
   </si>
   <si>
@@ -296,21 +302,24 @@
   </si>
   <si>
     <t>/20</t>
+  </si>
+  <si>
+    <t>192.214.3.1 - 192.214.3.254</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF212529"/>
       <name val="Chivo"/>
     </font>
@@ -320,7 +329,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -342,7 +351,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -356,41 +371,45 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -580,29 +599,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.5"/>
-    <col customWidth="1" min="2" max="2" width="16.88"/>
-    <col customWidth="1" min="3" max="3" width="14.38"/>
-    <col customWidth="1" min="5" max="5" width="20.25"/>
-    <col customWidth="1" min="6" max="6" width="16.38"/>
-    <col customWidth="1" min="7" max="7" width="32.25"/>
-    <col customWidth="1" min="8" max="8" width="20.75"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,15 +652,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -654,15 +678,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -680,15 +704,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -706,15 +730,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -732,15 +756,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -758,15 +782,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -784,15 +808,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -810,15 +834,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -836,15 +860,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -862,15 +886,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>47</v>
@@ -888,15 +912,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="2">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>53</v>
@@ -914,15 +938,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="2">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>53</v>
@@ -940,15 +964,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="2">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>53</v>
@@ -966,15 +990,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="2">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="C15" s="2">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>67</v>
@@ -992,15 +1016,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="2">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="C16" s="2">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>67</v>
@@ -1012,100 +1036,100 @@
         <v>74</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2">
+        <v>501</v>
+      </c>
+      <c r="C17" s="2">
+        <v>510</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="2">
-        <v>501.0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>510.0</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2">
+        <v>271</v>
+      </c>
+      <c r="C18" s="2">
+        <v>510</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="2">
-        <v>271.0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>510.0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1022</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="2">
-        <v>1001.0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1022.0</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="B20" s="3">
-        <v>2618.0</v>
+        <v>2618</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1113,6 +1137,6 @@
       <c r="H20" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>